--- a/数据整理/stocks/港股/00867-康哲药业.xlsx
+++ b/数据整理/stocks/港股/00867-康哲药业.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,73 +22,115 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>002685</t>
+  </si>
+  <si>
+    <t>005598</t>
+  </si>
+  <si>
+    <t>002686</t>
+  </si>
+  <si>
     <t>004532</t>
   </si>
   <si>
     <t>004533</t>
   </si>
   <si>
-    <t>002685</t>
-  </si>
-  <si>
-    <t>002686</t>
-  </si>
-  <si>
-    <t>005598</t>
-  </si>
-  <si>
     <t>005770</t>
   </si>
   <si>
+    <t>中欧丰泓沪港深灵活配置混合A</t>
+  </si>
+  <si>
+    <t>广发中小盘精选混合</t>
+  </si>
+  <si>
+    <t>中欧丰泓沪港深灵活配置混合C</t>
+  </si>
+  <si>
     <t>民生加银中证港股通高股息精选指数A</t>
   </si>
   <si>
     <t>民生加银中证港股通高股息精选指数C</t>
   </si>
   <si>
-    <t>中欧丰泓沪港深灵活配置混合A</t>
-  </si>
-  <si>
-    <t>中欧丰泓沪港深灵活配置混合C</t>
-  </si>
-  <si>
-    <t>广发中小盘精选混合</t>
-  </si>
-  <si>
     <t>信达澳银中证沪港深高股息精选指数</t>
   </si>
   <si>
+    <t>29.28</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>2.79</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>93.73</t>
+  </si>
+  <si>
+    <t>87.02</t>
+  </si>
+  <si>
     <t>93.93</t>
   </si>
   <si>
-    <t>93.73</t>
-  </si>
-  <si>
-    <t>87.02</t>
-  </si>
-  <si>
     <t>92.43</t>
   </si>
   <si>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>8.32</t>
+  </si>
+  <si>
     <t>4.34</t>
   </si>
   <si>
-    <t>4.15</t>
-  </si>
-  <si>
-    <t>8.32</t>
-  </si>
-  <si>
     <t>3.25</t>
+  </si>
+  <si>
+    <t>1.2151</t>
+  </si>
+  <si>
+    <t>0.1897</t>
+  </si>
+  <si>
+    <t>0.1158</t>
+  </si>
+  <si>
+    <t>0.0069</t>
+  </si>
+  <si>
+    <t>0.0043</t>
+  </si>
+  <si>
+    <t>0.0006</t>
   </si>
 </sst>
 </file>
@@ -446,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,124 +510,166 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00867-康哲药业.xlsx
+++ b/数据整理/stocks/港股/00867-康哲药业.xlsx
@@ -1,168 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>002685</t>
-  </si>
-  <si>
-    <t>005598</t>
-  </si>
-  <si>
-    <t>002686</t>
-  </si>
-  <si>
-    <t>004532</t>
-  </si>
-  <si>
-    <t>004533</t>
-  </si>
-  <si>
-    <t>005770</t>
-  </si>
-  <si>
-    <t>中欧丰泓沪港深灵活配置混合A</t>
-  </si>
-  <si>
-    <t>广发中小盘精选混合</t>
-  </si>
-  <si>
-    <t>中欧丰泓沪港深灵活配置混合C</t>
-  </si>
-  <si>
-    <t>民生加银中证港股通高股息精选指数A</t>
-  </si>
-  <si>
-    <t>民生加银中证港股通高股息精选指数C</t>
-  </si>
-  <si>
-    <t>信达澳银中证沪港深高股息精选指数</t>
-  </si>
-  <si>
-    <t>29.28</t>
-  </si>
-  <si>
-    <t>2.28</t>
-  </si>
-  <si>
-    <t>2.79</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>93.73</t>
-  </si>
-  <si>
-    <t>87.02</t>
-  </si>
-  <si>
-    <t>93.93</t>
-  </si>
-  <si>
-    <t>92.43</t>
-  </si>
-  <si>
-    <t>4.15</t>
-  </si>
-  <si>
-    <t>8.32</t>
-  </si>
-  <si>
-    <t>4.34</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>1.2151</t>
-  </si>
-  <si>
-    <t>0.1897</t>
-  </si>
-  <si>
-    <t>0.1158</t>
-  </si>
-  <si>
-    <t>0.0069</t>
-  </si>
-  <si>
-    <t>0.0043</t>
-  </si>
-  <si>
-    <t>0.0006</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -487,193 +446,721 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2151</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9230</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8609</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8297</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00867-康哲药业.xlsx
+++ b/数据整理/stocks/港股/00867-康哲药业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5978</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00867-康哲药业.xlsx
+++ b/数据整理/stocks/港股/00867-康哲药业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1372,4 +1373,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00867-康哲药业.xlsx
+++ b/数据整理/stocks/港股/00867-康哲药业.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1381,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,17 +1393,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1412,14 +1433,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.62</v>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6747</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1428,14 +1471,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.46</v>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1444,13 +1509,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.53</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00867-康哲药业.xlsx
+++ b/数据整理/stocks/港股/00867-康哲药业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.93</v>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5413</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1637,14 +1680,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.62</v>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1653,14 +1718,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.46</v>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1669,13 +1756,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.53</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00867-康哲药业.xlsx
+++ b/数据整理/stocks/港股/00867-康哲药业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1875,7 +1876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1886,17 +1887,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1906,14 +1927,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.06</v>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2663</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1922,14 +1965,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.93</v>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1938,14 +2003,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.62</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="5">
@@ -1954,14 +2125,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4.46</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6">
@@ -1970,13 +2141,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.53</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00867-康哲药业.xlsx
+++ b/数据整理/stocks/港股/00867-康哲药业.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,281 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002685</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>29.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2151</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005598</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1897</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.06</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002686</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1158</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.93</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004532</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004533</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005770</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
+      <c r="D7" t="n">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -740,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -791,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002685</t>
+          <t>010010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧丰泓沪港深灵活配置混合A</t>
+          <t>国投瑞银港股通6个月定期开放股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>46.45</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>96.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9230</t>
+          <t>0.2663</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -829,32 +677,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007110</t>
+          <t>005646</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银港股通价值发现混合</t>
+          <t>中海沪港深多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.85</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.58</t>
+          <t>88.57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8609</t>
+          <t>0.0598</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -867,302 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009007</t>
+          <t>005770</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴全沪港深两年持有期混合</t>
+          <t>信达澳银中证沪港深高股息精选指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36.23</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.55</t>
+          <t>91.69</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8297</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010010</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通6个月定期开放股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.37</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.35</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3795</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005598</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>83.06</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9.14</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2194</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002686</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2111</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004532</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005269</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004533</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005770</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.52</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1197,7 +779,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1237,26 +819,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.74</t>
+          <t>23.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>93.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5978</t>
+          <t>0.5413</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1265,36 +847,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>010010</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>国投瑞银港股通6个月定期开放股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0122</t>
+          <t>0.2548</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1303,36 +885,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>011157</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>弘毅远方港股通智选领航混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>90.35</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0051</t>
+          <t>0.1526</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1341,36 +923,112 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>005770</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>信达澳银中证沪港深高股息精选指数</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.81</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>0.0003</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1592,7 +1250,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1613,7 +1271,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1653,26 +1311,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.33</t>
+          <t>17.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>90.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5413</t>
+          <t>0.5978</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1681,36 +1339,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010010</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银港股通6个月定期开放股票</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>91.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2548</t>
+          <t>0.0122</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1719,36 +1377,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011157</t>
+          <t>004533</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>弘毅远方港股通智选领航混合A</t>
+          <t>民生加银中证港股通高股息精选指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>91.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1526</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1757,112 +1415,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005646</t>
+          <t>005770</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中海沪港深多策略灵活配置混合</t>
+          <t>信达澳银中证沪港深高股息精选指数</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.15</t>
+          <t>92.81</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0765</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011158</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>弘毅远方港股通智选领航混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.35</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0326</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005770</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.47</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1876,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1897,7 +1479,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1927,36 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010010</t>
+          <t>002685</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银港股通6个月定期开放股票</t>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.22</t>
+          <t>46.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.57</t>
+          <t>91.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2663</t>
+          <t>1.9230</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1965,32 +1547,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005646</t>
+          <t>007110</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中海沪港深多策略灵活配置混合</t>
+          <t>国投瑞银港股通价值发现混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>21.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.57</t>
+          <t>91.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0598</t>
+          <t>0.8609</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2003,36 +1585,302 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8297</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3795</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>005770</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>信达澳银中证沪港深高股息精选指数</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.69</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2046,128 +1894,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2151</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.53</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00867-康哲药业.xlsx
+++ b/数据整理/stocks/港股/00867-康哲药业.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.06</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.62</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>4.46</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.53</v>
       </c>
     </row>
@@ -583,6 +600,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -752,7 +901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1029,214 +1178,6 @@
       </c>
       <c r="H7" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007110</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通价值发现混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.67</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.54</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6747</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004532</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2512</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004533</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005770</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1271,7 +1212,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1311,26 +1252,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.74</t>
+          <t>19.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>90.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5978</t>
+          <t>0.6747</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1349,26 +1290,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>91.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0122</t>
+          <t>0.2512</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1387,26 +1328,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>91.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0051</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1430,21 +1371,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1453,6 +1394,214 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5978</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1888,7 +2037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00867-康哲药业.xlsx
+++ b/数据整理/stocks/港股/00867-康哲药业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.06</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.62</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>4.46</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.53</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.96</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>97.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2151</t>
+          <t>0.2787</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005646</t>
+          <t>513120</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中海沪港深多策略灵活配置混合</t>
+          <t>广发中证香港创新药（QDII-ETF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.17</t>
+          <t>98.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0396</t>
+          <t>0.0501</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -732,6 +749,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通6个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -901,7 +1050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1178,214 +1327,6 @@
       </c>
       <c r="H7" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007110</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银港股通价值发现混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.67</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.54</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6747</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004532</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2512</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004533</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005770</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>信达澳银中证沪港深高股息精选指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1420,7 +1361,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1460,26 +1401,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.74</t>
+          <t>19.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>90.54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5978</t>
+          <t>0.6747</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1498,26 +1439,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>91.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0122</t>
+          <t>0.2512</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1536,26 +1477,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>91.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0051</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1579,21 +1520,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1602,6 +1543,214 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银港股通价值发现混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5978</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2037,7 +2186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
